--- a/console/Networking/diskChExcel/diskMixins/list.xlsx
+++ b/console/Networking/diskChExcel/diskMixins/list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.18\Console_190117-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\MobileFile\translation_review-确认by-GTCOM\translation_review-确认\translation_review\diskChExcel\diskMixins\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -361,9 +361,6 @@
     </r>
   </si>
   <si>
-    <t>General Type SSD Cloud Disk</t>
-  </si>
-  <si>
     <t>list_i18nKey_18</t>
   </si>
   <si>
@@ -396,9 +393,6 @@
     </r>
   </si>
   <si>
-    <t>Performance Type SSD Cloud Disk</t>
-  </si>
-  <si>
     <t>list_i18nKey_19</t>
   </si>
   <si>
@@ -431,9 +425,6 @@
     </r>
   </si>
   <si>
-    <t>Capacity Type HDD Cloud Disk</t>
-  </si>
-  <si>
     <t>list_i18nKey_20</t>
   </si>
   <si>
@@ -831,9 +822,6 @@
     </r>
   </si>
   <si>
-    <t>'Only the available/wrong cloud disk paid by configuration can be deleted'</t>
-  </si>
-  <si>
     <t>list_i18nKey_40</t>
   </si>
   <si>
@@ -1241,33 +1229,49 @@
       </rPr>
       <t>'</t>
     </r>
+  </si>
+  <si>
+    <t>Edit columns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Cloud Disk Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Note: log in Virtual Machines to upload this hard disk after attaching to a VM; also first perform the detaching operation in the operating system of the virtual machine when detaching and then return to this page to select unloading</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Edit columns</t>
+    <t>General SSD Cloud Disk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Please select</t>
+    <t>Performance SSD Cloud Disk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No Cloud Disk Data</t>
+    <t>Capacity HDD Cloud Disk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Operated. Please refresh it manually'</t>
+    <t>Only the available/error cloud disk paid by configuration can be deleted'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successful operation. Please refresh it manually'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1294,6 +1298,19 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1315,15 +1332,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1663,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="D37" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1676,7 +1697,7 @@
     <col min="4" max="16384" width="32.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1695,10 +1716,11 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1709,7 +1731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1720,7 +1742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1728,10 +1750,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1742,7 +1764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1750,10 +1772,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1764,7 +1786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1775,7 +1797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1786,7 +1808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1797,7 +1819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1808,7 +1830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1819,7 +1841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1830,7 +1852,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1841,7 +1863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1859,409 +1881,412 @@
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>47</v>
+      <c r="C17" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>50</v>
+      <c r="C18" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="2" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="2" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="2" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="2" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="2" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="2" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="2" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="2" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="2" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="2" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="2" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="2" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="D53" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B53" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/console/Networking/diskChExcel/diskMixins/list.xlsx
+++ b/console/Networking/diskChExcel/diskMixins/list.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\MobileFile\translation_review-确认by-GTCOM\translation_review-确认\translation_review\diskChExcel\diskMixins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GTCOM\JD\!Source\en\console\Networking\diskChExcel\diskMixins\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1243,10 +1243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Note: log in Virtual Machines to upload this hard disk after attaching to a VM; also first perform the detaching operation in the operating system of the virtual machine when detaching and then return to this page to select unloading</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>General SSD Cloud Disk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1265,12 +1261,15 @@
   <si>
     <t>Successful operation. Please refresh it manually'</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note: log in Virtual Machine to mount the disk after attaching to one VM; also first perform the detaching operation in the operating system of the virtual machine when detaching and then return to this page to select unmount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1347,7 +1346,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1686,18 +1685,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="D37" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="32.3984375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.375" style="1"/>
-    <col min="3" max="3" width="73.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="32.375" style="1"/>
+    <col min="1" max="2" width="32.3984375" style="1"/>
+    <col min="3" max="3" width="73.59765625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="32.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1716,11 +1715,11 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1775,7 +1774,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1786,7 +1785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1874,7 +1873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1882,10 +1881,10 @@
         <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -1893,10 +1892,10 @@
         <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1904,10 +1903,10 @@
         <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -1940,7 +1939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -1984,7 +1983,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -1995,7 +1994,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>81</v>
       </c>
@@ -2028,7 +2027,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
@@ -2039,7 +2038,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -2050,7 +2049,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>90</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>96</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
@@ -2094,7 +2093,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>101</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -2116,7 +2115,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>107</v>
       </c>
@@ -2124,11 +2123,11 @@
         <v>108</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>109</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>112</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>115</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>118</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>121</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>127</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>130</v>
       </c>
@@ -2216,7 +2215,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>133</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>136</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>139</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
@@ -2260,7 +2259,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>145</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>148</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>149</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="5"/>
     </row>
